--- a/inst/dados_premissas/2022/fc_distribuidoras.xlsx
+++ b/inst/dados_premissas/2022/fc_distribuidoras.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md\inst\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE40CE-C138-481C-A483-026CC7956B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +115,6 @@
     <t>CEEE</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>EMG</t>
   </si>
   <si>
@@ -196,12 +194,15 @@
   </si>
   <si>
     <t>EQUATORIAL MA</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,19 +582,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +628,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -610,7 +645,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -627,7 +662,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -644,7 +679,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -661,7 +696,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -678,9 +713,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0.1505592130095621</v>
@@ -695,7 +730,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -712,9 +747,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>0.16339373716632441</v>
@@ -729,7 +764,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -746,7 +781,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -763,7 +798,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -780,7 +815,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -797,7 +832,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -814,7 +849,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -831,7 +866,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -848,7 +883,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -865,7 +900,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -882,7 +917,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -899,7 +934,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -916,7 +951,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -933,7 +968,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -950,7 +985,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -967,7 +1002,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1052,9 +1087,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0.1710513371051775</v>
@@ -1069,9 +1104,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0.15344402985074629</v>
@@ -1086,9 +1121,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0.1785158783783784</v>
@@ -1103,9 +1138,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0.16778437500000001</v>
@@ -1120,9 +1155,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.14625976562500001</v>
@@ -1137,9 +1172,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0.14053577283818819</v>
@@ -1154,9 +1189,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0.1380348557692308</v>
@@ -1171,9 +1206,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0.15511875</v>
@@ -1188,9 +1223,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0.1367723214285714</v>
@@ -1205,9 +1240,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0.15209103260869561</v>
@@ -1222,9 +1257,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0.13507812499999999</v>
@@ -1239,9 +1274,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0.1525</v>
@@ -1256,9 +1291,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0.16709013157894739</v>
@@ -1273,9 +1308,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0.17455717518636851</v>
@@ -1290,9 +1325,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0.145328323903819</v>
@@ -1307,9 +1342,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0.1805071588645418</v>
@@ -1324,9 +1359,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0.16517792705088269</v>
@@ -1341,9 +1376,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0.16333881578947371</v>
@@ -1358,9 +1393,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0.15914984631147541</v>
@@ -1375,9 +1410,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0.16293693573539059</v>
@@ -1392,9 +1427,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0.15918310778347211</v>
@@ -1409,9 +1444,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0.17823956763376039</v>
@@ -1426,9 +1461,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0.15420253696236561</v>
@@ -1443,9 +1478,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0.1668</v>
@@ -1460,9 +1495,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0.1452606486167341</v>
@@ -1477,9 +1512,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0.1624791666666667</v>
